--- a/ThemisAutomation/src/main/java/themis/Data/GoldThemis.xlsx
+++ b/ThemisAutomation/src/main/java/themis/Data/GoldThemis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{86CE3FDC-1E5D-4186-911F-B1D00C51AFB5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{43B590BE-D690-440A-B9C0-A9A36CE42DCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="804">
   <si>
     <t>CustomerReference</t>
   </si>
@@ -2096,6 +2096,339 @@
   </si>
   <si>
     <t>C-106569</t>
+  </si>
+  <si>
+    <t>10-1307238</t>
+  </si>
+  <si>
+    <t>C-106573</t>
+  </si>
+  <si>
+    <t>10-1307239</t>
+  </si>
+  <si>
+    <t>C-106577</t>
+  </si>
+  <si>
+    <t>10-1307240</t>
+  </si>
+  <si>
+    <t>C-106578</t>
+  </si>
+  <si>
+    <t>10-1307260</t>
+  </si>
+  <si>
+    <t>C-106579</t>
+  </si>
+  <si>
+    <t>10-1307262</t>
+  </si>
+  <si>
+    <t>C-106583</t>
+  </si>
+  <si>
+    <t>10-1307267</t>
+  </si>
+  <si>
+    <t>C-106584</t>
+  </si>
+  <si>
+    <t>10-1307268</t>
+  </si>
+  <si>
+    <t>C-106585</t>
+  </si>
+  <si>
+    <t>10-1307269</t>
+  </si>
+  <si>
+    <t>10-1307270</t>
+  </si>
+  <si>
+    <t>C-106586</t>
+  </si>
+  <si>
+    <t>10-1307271</t>
+  </si>
+  <si>
+    <t>C-106587</t>
+  </si>
+  <si>
+    <t>10-1307272</t>
+  </si>
+  <si>
+    <t>C-106588</t>
+  </si>
+  <si>
+    <t>10-1307273</t>
+  </si>
+  <si>
+    <t>C-106589</t>
+  </si>
+  <si>
+    <t>10-1307274</t>
+  </si>
+  <si>
+    <t>C-106590</t>
+  </si>
+  <si>
+    <t>10-1307275</t>
+  </si>
+  <si>
+    <t>C-106591</t>
+  </si>
+  <si>
+    <t>10-1307295</t>
+  </si>
+  <si>
+    <t>C-106602</t>
+  </si>
+  <si>
+    <t>10-1307320</t>
+  </si>
+  <si>
+    <t>C-106605</t>
+  </si>
+  <si>
+    <t>10-1307321</t>
+  </si>
+  <si>
+    <t>C-106609</t>
+  </si>
+  <si>
+    <t>10-1307350</t>
+  </si>
+  <si>
+    <t>C-106620</t>
+  </si>
+  <si>
+    <t>10-1307355</t>
+  </si>
+  <si>
+    <t>C-106624</t>
+  </si>
+  <si>
+    <t>10-1307384</t>
+  </si>
+  <si>
+    <t>C-106652</t>
+  </si>
+  <si>
+    <t>10-1307385</t>
+  </si>
+  <si>
+    <t>C-106656</t>
+  </si>
+  <si>
+    <t>10-1307386</t>
+  </si>
+  <si>
+    <t>C-106660</t>
+  </si>
+  <si>
+    <t>10-1307387</t>
+  </si>
+  <si>
+    <t>C-106661</t>
+  </si>
+  <si>
+    <t>10-1307394</t>
+  </si>
+  <si>
+    <t>10-1307437</t>
+  </si>
+  <si>
+    <t>C-106674</t>
+  </si>
+  <si>
+    <t>10-1307444</t>
+  </si>
+  <si>
+    <t>C-106675</t>
+  </si>
+  <si>
+    <t>10-1307446</t>
+  </si>
+  <si>
+    <t>C-106676</t>
+  </si>
+  <si>
+    <t>10-1307449</t>
+  </si>
+  <si>
+    <t>C-106678</t>
+  </si>
+  <si>
+    <t>10-1307450</t>
+  </si>
+  <si>
+    <t>C-106679</t>
+  </si>
+  <si>
+    <t>10-1307451</t>
+  </si>
+  <si>
+    <t>C-106680</t>
+  </si>
+  <si>
+    <t>10-1307452</t>
+  </si>
+  <si>
+    <t>C-106681</t>
+  </si>
+  <si>
+    <t>10-1307453</t>
+  </si>
+  <si>
+    <t>C-106682</t>
+  </si>
+  <si>
+    <t>10-1307470</t>
+  </si>
+  <si>
+    <t>C-106690</t>
+  </si>
+  <si>
+    <t>10-1307469</t>
+  </si>
+  <si>
+    <t>C-106689</t>
+  </si>
+  <si>
+    <t>10-1307535</t>
+  </si>
+  <si>
+    <t>C-106697</t>
+  </si>
+  <si>
+    <t>10-1307548</t>
+  </si>
+  <si>
+    <t>C-106706</t>
+  </si>
+  <si>
+    <t>10-1307563</t>
+  </si>
+  <si>
+    <t>C-106707</t>
+  </si>
+  <si>
+    <t>10-1307575</t>
+  </si>
+  <si>
+    <t>C-106708</t>
+  </si>
+  <si>
+    <t>10-1307577</t>
+  </si>
+  <si>
+    <t>C-106710</t>
+  </si>
+  <si>
+    <t>10-1307578</t>
+  </si>
+  <si>
+    <t>C-106711</t>
+  </si>
+  <si>
+    <t>10-1307579</t>
+  </si>
+  <si>
+    <t>10-1307580</t>
+  </si>
+  <si>
+    <t>10-1307581</t>
+  </si>
+  <si>
+    <t>C-106712</t>
+  </si>
+  <si>
+    <t>10-1307589</t>
+  </si>
+  <si>
+    <t>OF-222341</t>
+  </si>
+  <si>
+    <t>10-1307590</t>
+  </si>
+  <si>
+    <t>10-1307591</t>
+  </si>
+  <si>
+    <t>C-106722</t>
+  </si>
+  <si>
+    <t>10-1307601</t>
+  </si>
+  <si>
+    <t>C-106730</t>
+  </si>
+  <si>
+    <t>10-1307603</t>
+  </si>
+  <si>
+    <t>C-106731</t>
+  </si>
+  <si>
+    <t>10-1307627</t>
+  </si>
+  <si>
+    <t>C-106732</t>
+  </si>
+  <si>
+    <t>10-1307635</t>
+  </si>
+  <si>
+    <t>10-1307636</t>
+  </si>
+  <si>
+    <t>C-106737</t>
+  </si>
+  <si>
+    <t>10-1307659</t>
+  </si>
+  <si>
+    <t>C-106744</t>
+  </si>
+  <si>
+    <t>10-1307661</t>
+  </si>
+  <si>
+    <t>C-106745</t>
+  </si>
+  <si>
+    <t>10-1307663</t>
+  </si>
+  <si>
+    <t>10-1307665</t>
+  </si>
+  <si>
+    <t>C-106746</t>
+  </si>
+  <si>
+    <t>10-1307704</t>
+  </si>
+  <si>
+    <t>C-106750</t>
+  </si>
+  <si>
+    <t>10-1307760</t>
+  </si>
+  <si>
+    <t>C-106759</t>
+  </si>
+  <si>
+    <t>10-1307761</t>
+  </si>
+  <si>
+    <t>C-106760</t>
+  </si>
+  <si>
+    <t>10-1307762</t>
+  </si>
+  <si>
+    <t>C-106761</t>
   </si>
 </sst>
 </file>
@@ -2542,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,6 +4769,301 @@
         <v>691</v>
       </c>
     </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -4444,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C319"/>
+  <dimension ref="A2:C371"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+    <sheetView topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,9 +6678,269 @@
         <v>690</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>692</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/ThemisAutomation/src/main/java/themis/Data/GoldThemis.xlsx
+++ b/ThemisAutomation/src/main/java/themis/Data/GoldThemis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{43B590BE-D690-440A-B9C0-A9A36CE42DCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{67A06C72-7FB4-4905-AD87-48605D0DD699}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="881">
   <si>
     <t>CustomerReference</t>
   </si>
@@ -2429,6 +2429,237 @@
   </si>
   <si>
     <t>C-106761</t>
+  </si>
+  <si>
+    <t>10-1307764</t>
+  </si>
+  <si>
+    <t>OF-222433</t>
+  </si>
+  <si>
+    <t>10-1307792</t>
+  </si>
+  <si>
+    <t>C-106767</t>
+  </si>
+  <si>
+    <t>C-117487</t>
+  </si>
+  <si>
+    <t>10-1320418</t>
+  </si>
+  <si>
+    <t>C-117502</t>
+  </si>
+  <si>
+    <t>10-1320419</t>
+  </si>
+  <si>
+    <t>C-117509</t>
+  </si>
+  <si>
+    <t>10-1320421</t>
+  </si>
+  <si>
+    <t>C-117517</t>
+  </si>
+  <si>
+    <t>10-1320424</t>
+  </si>
+  <si>
+    <t>C-117518</t>
+  </si>
+  <si>
+    <t>10-1330620</t>
+  </si>
+  <si>
+    <t>C-117523</t>
+  </si>
+  <si>
+    <t>10-1307793</t>
+  </si>
+  <si>
+    <t>C-106769</t>
+  </si>
+  <si>
+    <t>10-1307794</t>
+  </si>
+  <si>
+    <t>C-106770</t>
+  </si>
+  <si>
+    <t>10-1307795</t>
+  </si>
+  <si>
+    <t>C-106771</t>
+  </si>
+  <si>
+    <t>10-1307796</t>
+  </si>
+  <si>
+    <t>C-106772</t>
+  </si>
+  <si>
+    <t>10-1307798</t>
+  </si>
+  <si>
+    <t>C-106774</t>
+  </si>
+  <si>
+    <t>10-1330637</t>
+  </si>
+  <si>
+    <t>C-117586</t>
+  </si>
+  <si>
+    <t>10-1330628</t>
+  </si>
+  <si>
+    <t>C-117588</t>
+  </si>
+  <si>
+    <t>10-1330639</t>
+  </si>
+  <si>
+    <t>C-117590</t>
+  </si>
+  <si>
+    <t>10-1307799</t>
+  </si>
+  <si>
+    <t>C-106775</t>
+  </si>
+  <si>
+    <t>10-1307800</t>
+  </si>
+  <si>
+    <t>C-106776</t>
+  </si>
+  <si>
+    <t>10-1307801</t>
+  </si>
+  <si>
+    <t>C-106777</t>
+  </si>
+  <si>
+    <t>10-1307802</t>
+  </si>
+  <si>
+    <t>C-106778</t>
+  </si>
+  <si>
+    <t>10-1307803</t>
+  </si>
+  <si>
+    <t>C-106779</t>
+  </si>
+  <si>
+    <t>10-1307804</t>
+  </si>
+  <si>
+    <t>C-106781</t>
+  </si>
+  <si>
+    <t>10-1307805</t>
+  </si>
+  <si>
+    <t>C-106782</t>
+  </si>
+  <si>
+    <t>10-1307905</t>
+  </si>
+  <si>
+    <t>OF-222470</t>
+  </si>
+  <si>
+    <t>10-1307980</t>
+  </si>
+  <si>
+    <t>10-1307981</t>
+  </si>
+  <si>
+    <t>C-106784</t>
+  </si>
+  <si>
+    <t>10-1307985</t>
+  </si>
+  <si>
+    <t>10-1307984</t>
+  </si>
+  <si>
+    <t>C-106785</t>
+  </si>
+  <si>
+    <t>10-1307986</t>
+  </si>
+  <si>
+    <t>C-106786</t>
+  </si>
+  <si>
+    <t>10-1307989</t>
+  </si>
+  <si>
+    <t>C-106787</t>
+  </si>
+  <si>
+    <t>10-1307992</t>
+  </si>
+  <si>
+    <t>C-106788</t>
+  </si>
+  <si>
+    <t>10-1308042</t>
+  </si>
+  <si>
+    <t>C-106789</t>
+  </si>
+  <si>
+    <t>10-1308155</t>
+  </si>
+  <si>
+    <t>C-106818</t>
+  </si>
+  <si>
+    <t>10-1308156</t>
+  </si>
+  <si>
+    <t>C-106819</t>
+  </si>
+  <si>
+    <t>10-1308158</t>
+  </si>
+  <si>
+    <t>C-106820</t>
+  </si>
+  <si>
+    <t>10-1308161</t>
+  </si>
+  <si>
+    <t>C-106826</t>
+  </si>
+  <si>
+    <t>10-1308164</t>
+  </si>
+  <si>
+    <t>C-106828</t>
+  </si>
+  <si>
+    <t>10-1308165</t>
+  </si>
+  <si>
+    <t>C-106829</t>
+  </si>
+  <si>
+    <t>10-1308167</t>
+  </si>
+  <si>
+    <t>C-106831</t>
+  </si>
+  <si>
+    <t>10-1308168</t>
+  </si>
+  <si>
+    <t>C-106832</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C429"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,6 +5295,211 @@
         <v>802</v>
       </c>
     </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -5072,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C371"/>
+  <dimension ref="A2:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,9 +7374,199 @@
         <v>801</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>803</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
